--- a/biology/Botanique/Jardin_du_rond-point_de_la_Porte-de-Saint-Cloud/Jardin_du_rond-point_de_la_Porte-de-Saint-Cloud.xlsx
+++ b/biology/Botanique/Jardin_du_rond-point_de_la_Porte-de-Saint-Cloud/Jardin_du_rond-point_de_la_Porte-de-Saint-Cloud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin du rond-point de la Porte-de-Saint-Cloud est un espace vert situé dans le 16e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site est accessible par la place de la Porte-de-Saint-Cloud.
 Il est desservi par la ligne 9 à la station Porte de Saint-Cloud.
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,10 +586,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin se trouve au centre de la place de la Porte-de-Saint-Cloud, un rond-point automobile. À l'origine, il était arboré. Au début du XXIe siècle, aucun accès n'existe pour les piétons[1],[2].
-Il accueille une double fontaine monumentale, œuvre des architectes Jacques Billard et Robert Pommier et du sculpteur Paul Landowski, créée à l'occasion de l'exposition universelle de 1937. En 2019-2021, le site est réhabilité, un passage piéton permettant désormais de rejoindre le jardin ; les fontaines sont pour leur part remises en eau après plusieurs décennies d'inactivité[3],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin se trouve au centre de la place de la Porte-de-Saint-Cloud, un rond-point automobile. À l'origine, il était arboré. Au début du XXIe siècle, aucun accès n'existe pour les piétons,.
+Il accueille une double fontaine monumentale, œuvre des architectes Jacques Billard et Robert Pommier et du sculpteur Paul Landowski, créée à l'occasion de l'exposition universelle de 1937. En 2019-2021, le site est réhabilité, un passage piéton permettant désormais de rejoindre le jardin ; les fontaines sont pour leur part remises en eau après plusieurs décennies d'inactivité,.
 </t>
         </is>
       </c>
